--- a/crm/data/archival/DocumentalRetention/relations/DocumentalRetentionR5TrdGestion.xlsx
+++ b/crm/data/archival/DocumentalRetention/relations/DocumentalRetentionR5TrdGestion.xlsx
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -740,7 +740,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1043,7 +1043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
